--- a/Progress/report.xlsx
+++ b/Progress/report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kce\ALGORITHM BATCH\ALGORITHM\My Progress\DS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kce\ALGORITHM BATCH\ALGORITHM_problemSolving\Progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B684308-3EC4-42D2-A2AE-E91D97AC335A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81B92DD-7DD6-4248-B3AB-B559E2401805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{71B68AF2-32C9-4431-B57E-E64FC6AC7561}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>DATA STRUCTURE AND ALGORITHM</t>
   </si>
@@ -45,9 +45,6 @@
     <t>PLATFORM</t>
   </si>
   <si>
-    <t>TOPIC</t>
-  </si>
-  <si>
     <t>LINK</t>
   </si>
   <si>
@@ -73,6 +70,15 @@
   </si>
   <si>
     <t>Median of 2 Sorted  Arrays of Different Sizes</t>
+  </si>
+  <si>
+    <t>https://www.faceprep.in/c/pattern-programs-in-c/</t>
+  </si>
+  <si>
+    <t>pattern</t>
+  </si>
+  <si>
+    <t>concept</t>
   </si>
 </sst>
 </file>
@@ -117,7 +123,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -126,10 +132,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -438,7 +447,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -446,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44825325-F310-48C5-9F4D-171107D01588}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -463,24 +472,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -490,13 +499,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -506,16 +515,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -523,19 +532,27 @@
     <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -544,8 +561,9 @@
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{35AD1BDE-DAC4-4AD4-9B30-3400DE7DA5F2}"/>
     <hyperlink ref="D5" r:id="rId2" xr:uid="{B195BA03-197B-4FF0-AE44-8FB3B59ADA2D}"/>
+    <hyperlink ref="D6" r:id="rId3" xr:uid="{F0E83A45-888A-449F-B132-DF257C012C40}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Progress/report.xlsx
+++ b/Progress/report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kce\ALGORITHM BATCH\ALGORITHM_problemSolving\Progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81B92DD-7DD6-4248-B3AB-B559E2401805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB5A989-3786-4C1F-B6B1-D23BD8182CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{71B68AF2-32C9-4431-B57E-E64FC6AC7561}"/>
   </bookViews>
@@ -33,8 +33,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>DATA STRUCTURE AND ALGORITHM</t>
   </si>
@@ -63,9 +85,6 @@
     <t>gfg</t>
   </si>
   <si>
-    <t>problem</t>
-  </si>
-  <si>
     <t>anagram</t>
   </si>
   <si>
@@ -79,6 +98,36 @@
   </si>
   <si>
     <t>concept</t>
+  </si>
+  <si>
+    <t>https://aticleworld.com/interview-questions-on-bitwise-operators-in-c/</t>
+  </si>
+  <si>
+    <t>No of problem</t>
+  </si>
+  <si>
+    <t>bitwise</t>
+  </si>
+  <si>
+    <t>problem statement</t>
+  </si>
+  <si>
+    <t>looping</t>
+  </si>
+  <si>
+    <t>vs code</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/top-50-array-coding-problems-for-interviews/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/top-50-string-coding-problems-for-interviews/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-subarray/submissions/897157585/</t>
   </si>
 </sst>
 </file>
@@ -123,7 +172,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -136,9 +185,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -455,20 +501,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44825325-F310-48C5-9F4D-171107D01588}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="78.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -499,26 +545,29 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="1" cm="1">
+        <f t="array" ref="A4:A7">_xlfn.SEQUENCE(4,,1,1)</f>
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -526,16 +575,20 @@
       <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
+    <row r="5" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>7</v>
@@ -543,15 +596,102 @@
       <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1">
+        <v>7</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -562,8 +702,9 @@
     <hyperlink ref="D4" r:id="rId1" xr:uid="{35AD1BDE-DAC4-4AD4-9B30-3400DE7DA5F2}"/>
     <hyperlink ref="D5" r:id="rId2" xr:uid="{B195BA03-197B-4FF0-AE44-8FB3B59ADA2D}"/>
     <hyperlink ref="D6" r:id="rId3" xr:uid="{F0E83A45-888A-449F-B132-DF257C012C40}"/>
+    <hyperlink ref="D7" r:id="rId4" xr:uid="{D411C75B-EC6F-4504-A1FC-A02CB596B1CD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Progress/report.xlsx
+++ b/Progress/report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kce\ALGORITHM BATCH\ALGORITHM_problemSolving\Progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB5A989-3786-4C1F-B6B1-D23BD8182CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC91E371-4552-4708-A1D9-4B71DE037E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{71B68AF2-32C9-4431-B57E-E64FC6AC7561}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
   <si>
     <t>DATA STRUCTURE AND ALGORITHM</t>
   </si>
@@ -128,6 +128,15 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/maximum-subarray/submissions/897157585/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/product-of-array-except-self/solutions/</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>COMPLETED</t>
   </si>
 </sst>
 </file>
@@ -501,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44825325-F310-48C5-9F4D-171107D01588}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,12 +521,13 @@
     <col min="1" max="1" width="4.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="78.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="78.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -527,8 +537,9 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -536,8 +547,9 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -548,17 +560,20 @@
         <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" cm="1">
         <f t="array" ref="A4:A7">_xlfn.SEQUENCE(4,,1,1)</f>
         <v>1</v>
@@ -569,18 +584,21 @@
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -590,18 +608,21 @@
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -611,18 +632,21 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>8</v>
       </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -630,79 +654,102 @@
         <v>19</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>7</v>
       </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A1:H2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{35AD1BDE-DAC4-4AD4-9B30-3400DE7DA5F2}"/>
-    <hyperlink ref="D5" r:id="rId2" xr:uid="{B195BA03-197B-4FF0-AE44-8FB3B59ADA2D}"/>
-    <hyperlink ref="D6" r:id="rId3" xr:uid="{F0E83A45-888A-449F-B132-DF257C012C40}"/>
-    <hyperlink ref="D7" r:id="rId4" xr:uid="{D411C75B-EC6F-4504-A1FC-A02CB596B1CD}"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{35AD1BDE-DAC4-4AD4-9B30-3400DE7DA5F2}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{B195BA03-197B-4FF0-AE44-8FB3B59ADA2D}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{F0E83A45-888A-449F-B132-DF257C012C40}"/>
+    <hyperlink ref="E7" r:id="rId4" xr:uid="{D411C75B-EC6F-4504-A1FC-A02CB596B1CD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>

--- a/Progress/report.xlsx
+++ b/Progress/report.xlsx
@@ -8,13 +8,50 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kce\ALGORITHM BATCH\ALGORITHM_problemSolving\Progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC91E371-4552-4708-A1D9-4B71DE037E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597C1189-B38A-4E3A-A02B-6B430477EBF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{71B68AF2-32C9-4431-B57E-E64FC6AC7561}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="LeetCode" sheetId="1" r:id="rId1"/>
+    <sheet name="GFG" sheetId="2" r:id="rId2"/>
+    <sheet name="CODECHEF" sheetId="3" r:id="rId3"/>
+    <sheet name="Specific Problem" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v5.0" hidden="1">LeetCode!$A$1:$A$9</definedName>
+    <definedName name="_xlchart.v5.1" hidden="1">LeetCode!$B$1:$B$9</definedName>
+    <definedName name="_xlchart.v5.10" hidden="1">LeetCode!$C$1:$C$13</definedName>
+    <definedName name="_xlchart.v5.11" hidden="1">LeetCode!$D$1:$D$13</definedName>
+    <definedName name="_xlchart.v5.12" hidden="1">LeetCode!$E$1:$E$13</definedName>
+    <definedName name="_xlchart.v5.13" hidden="1">LeetCode!$F$1:$F$13</definedName>
+    <definedName name="_xlchart.v5.14" hidden="1">LeetCode!$G$1:$G$13</definedName>
+    <definedName name="_xlchart.v5.15" hidden="1">LeetCode!$H$1:$H$13</definedName>
+    <definedName name="_xlchart.v5.16" hidden="1">LeetCode!$A$1:$A$13</definedName>
+    <definedName name="_xlchart.v5.17" hidden="1">LeetCode!$B$1:$B$13</definedName>
+    <definedName name="_xlchart.v5.18" hidden="1">LeetCode!$C$1:$C$13</definedName>
+    <definedName name="_xlchart.v5.19" hidden="1">LeetCode!$D$1:$D$13</definedName>
+    <definedName name="_xlchart.v5.2" hidden="1">LeetCode!$C$1:$C$9</definedName>
+    <definedName name="_xlchart.v5.20" hidden="1">LeetCode!$E$1:$E$13</definedName>
+    <definedName name="_xlchart.v5.21" hidden="1">LeetCode!$F$1:$F$13</definedName>
+    <definedName name="_xlchart.v5.22" hidden="1">LeetCode!$G$1:$G$13</definedName>
+    <definedName name="_xlchart.v5.23" hidden="1">LeetCode!$H$1:$H$13</definedName>
+    <definedName name="_xlchart.v5.24" hidden="1">LeetCode!$A$1:$A$13</definedName>
+    <definedName name="_xlchart.v5.25" hidden="1">LeetCode!$B$1:$B$13</definedName>
+    <definedName name="_xlchart.v5.26" hidden="1">LeetCode!$C$1:$C$13</definedName>
+    <definedName name="_xlchart.v5.27" hidden="1">LeetCode!$D$1:$D$13</definedName>
+    <definedName name="_xlchart.v5.28" hidden="1">LeetCode!$E$1:$E$13</definedName>
+    <definedName name="_xlchart.v5.29" hidden="1">LeetCode!$F$1:$F$13</definedName>
+    <definedName name="_xlchart.v5.3" hidden="1">LeetCode!$D$1:$D$9</definedName>
+    <definedName name="_xlchart.v5.30" hidden="1">LeetCode!$G$1:$G$13</definedName>
+    <definedName name="_xlchart.v5.31" hidden="1">LeetCode!$H$1:$H$13</definedName>
+    <definedName name="_xlchart.v5.4" hidden="1">LeetCode!$E$1:$E$9</definedName>
+    <definedName name="_xlchart.v5.5" hidden="1">LeetCode!$F$1:$F$9</definedName>
+    <definedName name="_xlchart.v5.6" hidden="1">LeetCode!$G$1:$G$9</definedName>
+    <definedName name="_xlchart.v5.7" hidden="1">LeetCode!$H$1:$H$9</definedName>
+    <definedName name="_xlchart.v5.8" hidden="1">LeetCode!$A$1:$A$13</definedName>
+    <definedName name="_xlchart.v5.9" hidden="1">LeetCode!$B$1:$B$13</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,30 +70,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="30">
   <si>
     <t>DATA STRUCTURE AND ALGORITHM</t>
   </si>
@@ -137,6 +152,15 @@
   </si>
   <si>
     <t>COMPLETED</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/two-sum/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/container-with-most-water/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -510,9 +534,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44825325-F310-48C5-9F4D-171107D01588}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -574,8 +598,7 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" cm="1">
-        <f t="array" ref="A4:A7">_xlfn.SEQUENCE(4,,1,1)</f>
+      <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -598,21 +621,18 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>7</v>
+      <c r="E5" t="s">
+        <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>5</v>
@@ -620,125 +640,67 @@
       <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
+      <c r="E6" t="s">
+        <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="1">
-        <v>8</v>
-      </c>
-      <c r="H6" s="1"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1"/>
+        <v>4</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>14</v>
+      <c r="E7" t="s">
+        <v>24</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="1">
-        <v>7</v>
-      </c>
-      <c r="H7" s="1"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>19</v>
+      <c r="A9" s="1">
+        <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -747,11 +709,255 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" xr:uid="{35AD1BDE-DAC4-4AD4-9B30-3400DE7DA5F2}"/>
-    <hyperlink ref="E5" r:id="rId2" xr:uid="{B195BA03-197B-4FF0-AE44-8FB3B59ADA2D}"/>
-    <hyperlink ref="E6" r:id="rId3" xr:uid="{F0E83A45-888A-449F-B132-DF257C012C40}"/>
-    <hyperlink ref="E7" r:id="rId4" xr:uid="{D411C75B-EC6F-4504-A1FC-A02CB596B1CD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F28DB71-3FE6-4A2B-B7F7-0AC2BF555D66}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{2D7ECE5F-9753-4C8F-825F-7097B97EBCD5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00094C7-E009-41CF-AB30-BB2C607595C2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59BAFA7-4765-4FB8-A449-26BF5FA159CB}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1">
+        <v>8</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{631096AE-38AF-4467-B9B5-EC05CA6F4ADF}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{9C9722FF-D369-47EF-8B6E-E47CE1F80709}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Progress/report.xlsx
+++ b/Progress/report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kce\ALGORITHM BATCH\ALGORITHM_problemSolving\Progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597C1189-B38A-4E3A-A02B-6B430477EBF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE96BDD-7647-4EBA-8501-E7E8E3B71FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{71B68AF2-32C9-4431-B57E-E64FC6AC7561}"/>
   </bookViews>
@@ -18,40 +18,6 @@
     <sheet name="CODECHEF" sheetId="3" r:id="rId3"/>
     <sheet name="Specific Problem" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v5.0" hidden="1">LeetCode!$A$1:$A$9</definedName>
-    <definedName name="_xlchart.v5.1" hidden="1">LeetCode!$B$1:$B$9</definedName>
-    <definedName name="_xlchart.v5.10" hidden="1">LeetCode!$C$1:$C$13</definedName>
-    <definedName name="_xlchart.v5.11" hidden="1">LeetCode!$D$1:$D$13</definedName>
-    <definedName name="_xlchart.v5.12" hidden="1">LeetCode!$E$1:$E$13</definedName>
-    <definedName name="_xlchart.v5.13" hidden="1">LeetCode!$F$1:$F$13</definedName>
-    <definedName name="_xlchart.v5.14" hidden="1">LeetCode!$G$1:$G$13</definedName>
-    <definedName name="_xlchart.v5.15" hidden="1">LeetCode!$H$1:$H$13</definedName>
-    <definedName name="_xlchart.v5.16" hidden="1">LeetCode!$A$1:$A$13</definedName>
-    <definedName name="_xlchart.v5.17" hidden="1">LeetCode!$B$1:$B$13</definedName>
-    <definedName name="_xlchart.v5.18" hidden="1">LeetCode!$C$1:$C$13</definedName>
-    <definedName name="_xlchart.v5.19" hidden="1">LeetCode!$D$1:$D$13</definedName>
-    <definedName name="_xlchart.v5.2" hidden="1">LeetCode!$C$1:$C$9</definedName>
-    <definedName name="_xlchart.v5.20" hidden="1">LeetCode!$E$1:$E$13</definedName>
-    <definedName name="_xlchart.v5.21" hidden="1">LeetCode!$F$1:$F$13</definedName>
-    <definedName name="_xlchart.v5.22" hidden="1">LeetCode!$G$1:$G$13</definedName>
-    <definedName name="_xlchart.v5.23" hidden="1">LeetCode!$H$1:$H$13</definedName>
-    <definedName name="_xlchart.v5.24" hidden="1">LeetCode!$A$1:$A$13</definedName>
-    <definedName name="_xlchart.v5.25" hidden="1">LeetCode!$B$1:$B$13</definedName>
-    <definedName name="_xlchart.v5.26" hidden="1">LeetCode!$C$1:$C$13</definedName>
-    <definedName name="_xlchart.v5.27" hidden="1">LeetCode!$D$1:$D$13</definedName>
-    <definedName name="_xlchart.v5.28" hidden="1">LeetCode!$E$1:$E$13</definedName>
-    <definedName name="_xlchart.v5.29" hidden="1">LeetCode!$F$1:$F$13</definedName>
-    <definedName name="_xlchart.v5.3" hidden="1">LeetCode!$D$1:$D$9</definedName>
-    <definedName name="_xlchart.v5.30" hidden="1">LeetCode!$G$1:$G$13</definedName>
-    <definedName name="_xlchart.v5.31" hidden="1">LeetCode!$H$1:$H$13</definedName>
-    <definedName name="_xlchart.v5.4" hidden="1">LeetCode!$E$1:$E$9</definedName>
-    <definedName name="_xlchart.v5.5" hidden="1">LeetCode!$F$1:$F$9</definedName>
-    <definedName name="_xlchart.v5.6" hidden="1">LeetCode!$G$1:$G$9</definedName>
-    <definedName name="_xlchart.v5.7" hidden="1">LeetCode!$H$1:$H$9</definedName>
-    <definedName name="_xlchart.v5.8" hidden="1">LeetCode!$A$1:$A$13</definedName>
-    <definedName name="_xlchart.v5.9" hidden="1">LeetCode!$B$1:$B$13</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -71,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="32">
   <si>
     <t>DATA STRUCTURE AND ALGORITHM</t>
   </si>
@@ -161,6 +127,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/add-two-numbers/submissions/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-sorted-array/description/</t>
   </si>
 </sst>
 </file>
@@ -534,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44825325-F310-48C5-9F4D-171107D01588}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -701,6 +673,28 @@
       </c>
       <c r="E9" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Progress/report.xlsx
+++ b/Progress/report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kce\ALGORITHM BATCH\ALGORITHM_problemSolving\Progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE96BDD-7647-4EBA-8501-E7E8E3B71FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8BC5ED-6695-4DAE-867C-8F895B30F62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{71B68AF2-32C9-4431-B57E-E64FC6AC7561}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
   <si>
     <t>DATA STRUCTURE AND ALGORITHM</t>
   </si>
@@ -133,6 +133,15 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/merge-sorted-array/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/intersection-of-two-arrays-ii/?envType=study-plan&amp;id=data-structure-i</t>
+  </si>
+  <si>
+    <t>NOT COMPLETED</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-substring-without-repeating-characters/description/</t>
   </si>
 </sst>
 </file>
@@ -196,8 +205,29 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF0000"/>
+      <color rgb="FFFF3300"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -506,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44825325-F310-48C5-9F4D-171107D01588}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -697,10 +727,34 @@
         <v>31</v>
       </c>
     </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H2"/>
   </mergeCells>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"COMPLETED"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"NOT COMPLETED"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" xr:uid="{35AD1BDE-DAC4-4AD4-9B30-3400DE7DA5F2}"/>
   </hyperlinks>

--- a/Progress/report.xlsx
+++ b/Progress/report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kce\ALGORITHM BATCH\ALGORITHM_problemSolving\Progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8BC5ED-6695-4DAE-867C-8F895B30F62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B6F8B3-4855-4BFA-8CD2-E4B58CF41551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{71B68AF2-32C9-4431-B57E-E64FC6AC7561}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="39">
   <si>
     <t>DATA STRUCTURE AND ALGORITHM</t>
   </si>
@@ -51,9 +51,6 @@
     <t>LINK</t>
   </si>
   <si>
-    <t>leetcode</t>
-  </si>
-  <si>
     <t>array</t>
   </si>
   <si>
@@ -142,13 +139,28 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/longest-substring-without-repeating-characters/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reshape-the-matrix/description/?envType=study-plan&amp;id=data-structure-i</t>
+  </si>
+  <si>
+    <t>#LEETCODE</t>
+  </si>
+  <si>
+    <t>242. Valid Anagram</t>
+  </si>
+  <si>
+    <t>566. Reshape the Matrix</t>
+  </si>
+  <si>
+    <t>350. Intersection of Two Arrays II</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +175,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -186,7 +204,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -200,6 +218,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -209,14 +232,14 @@
     <dxf>
       <fill>
         <patternFill patternType="gray0625">
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="8" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="gray0625">
-          <bgColor theme="8" tint="0.39994506668294322"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -536,19 +559,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44825325-F310-48C5-9F4D-171107D01588}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="78.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="89.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -579,44 +602,44 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
+      <c r="B3" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -627,17 +650,15 @@
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="6"/>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -647,100 +668,133 @@
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="6"/>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="6"/>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="B8" s="6"/>
       <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
+      <c r="B9" s="6"/>
       <c r="D9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
+      <c r="B10" s="6"/>
       <c r="D10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
+      <c r="B11" s="6"/>
       <c r="D11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="D12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D12" s="1" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="D13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" t="s">
+    </row>
+    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -748,11 +802,11 @@
     <mergeCell ref="A1:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"NOT COMPLETED"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"COMPLETED"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"NOT COMPLETED"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -803,19 +857,19 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1"/>
     </row>
@@ -824,19 +878,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -906,38 +960,38 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1">
         <v>8</v>
@@ -947,17 +1001,17 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" s="1">
         <v>7</v>
@@ -966,16 +1020,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -983,16 +1037,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>

--- a/Progress/report.xlsx
+++ b/Progress/report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kce\ALGORITHM BATCH\ALGORITHM_problemSolving\Progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B6F8B3-4855-4BFA-8CD2-E4B58CF41551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77426F8B-BA9D-44D9-B09D-C37CE27ABC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{71B68AF2-32C9-4431-B57E-E64FC6AC7561}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
   <si>
     <t>DATA STRUCTURE AND ALGORITHM</t>
   </si>
@@ -154,13 +154,22 @@
   </si>
   <si>
     <t>350. Intersection of Two Arrays II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/pascals-triangle/description/</t>
+  </si>
+  <si>
+    <t>118. Pascal's Triangle</t>
+  </si>
+  <si>
+    <t>L</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +184,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -204,7 +219,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -215,14 +230,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -559,16 +571,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44825325-F310-48C5-9F4D-171107D01588}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="89.88671875" bestFit="1" customWidth="1"/>
@@ -577,32 +589,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -618,7 +630,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="H3" s="1"/>
     </row>
@@ -626,7 +638,7 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -650,7 +662,7 @@
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
@@ -668,7 +680,7 @@
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="1"/>
       <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
@@ -683,7 +695,7 @@
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>25</v>
       </c>
@@ -698,7 +710,7 @@
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="1"/>
       <c r="D8" s="1" t="s">
         <v>25</v>
       </c>
@@ -713,7 +725,7 @@
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>25</v>
       </c>
@@ -725,7 +737,7 @@
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>25</v>
       </c>
@@ -737,7 +749,7 @@
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>25</v>
       </c>
@@ -749,7 +761,7 @@
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>32</v>
       </c>
@@ -761,7 +773,7 @@
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>25</v>
       </c>
@@ -773,7 +785,7 @@
       <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -787,7 +799,7 @@
       <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -796,6 +808,17 @@
       <c r="E15" s="2" t="s">
         <v>31</v>
       </c>
+    </row>
+    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D18" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -811,9 +834,10 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" xr:uid="{35AD1BDE-DAC4-4AD4-9B30-3400DE7DA5F2}"/>
+    <hyperlink ref="E16" r:id="rId2" xr:uid="{88BD2F3A-BA1B-43DB-9EF7-F89B066FD9C3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -828,26 +852,26 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -931,26 +955,26 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">

--- a/Progress/report.xlsx
+++ b/Progress/report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kce\ALGORITHM BATCH\ALGORITHM_problemSolving\Progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77426F8B-BA9D-44D9-B09D-C37CE27ABC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35C2EA6-8FE2-480F-876C-5A8910E4F484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{71B68AF2-32C9-4431-B57E-E64FC6AC7561}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="43">
   <si>
     <t>DATA STRUCTURE AND ALGORITHM</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>L</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/linked-list-cycle/description/</t>
   </si>
 </sst>
 </file>
@@ -219,7 +222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -231,10 +234,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -574,7 +578,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -589,26 +593,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -810,14 +814,19 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D18" s="1"/>
     </row>
   </sheetData>
@@ -835,9 +844,10 @@
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" xr:uid="{35AD1BDE-DAC4-4AD4-9B30-3400DE7DA5F2}"/>
     <hyperlink ref="E16" r:id="rId2" xr:uid="{88BD2F3A-BA1B-43DB-9EF7-F89B066FD9C3}"/>
+    <hyperlink ref="E17" r:id="rId3" xr:uid="{7532CB85-150E-40AB-9F4F-E1AFD9A4456A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -852,26 +862,26 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -955,26 +965,26 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
